--- a/Tools/Flatbuffer/Excel/SkillConfig.xlsx
+++ b/Tools/Flatbuffer/Excel/SkillConfig.xlsx
@@ -44,34 +44,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackAngle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,26 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackTargetTags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImpactType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DurationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能预设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,34 +80,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimationName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitFxPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,15 +171,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextBattlerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下一个连击ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CostSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AttackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AttackAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AttackTargetTags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ImpactType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_NextBattlerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AtkRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_DurationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AtkInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SkillPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AnimationName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HitFxPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SelectorType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -684,111 +684,111 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -808,54 +808,54 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -873,10 +873,10 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -891,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
@@ -909,12 +909,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -932,10 +932,10 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
@@ -968,12 +968,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -991,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
@@ -1027,12 +1027,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -1050,10 +1050,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="2">
         <v>1</v>
